--- a/forms/psa_forage/psa_forage_onfarm.xlsx
+++ b/forms/psa_forage/psa_forage_onfarm.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\saseehav\Documents\GitHub\Kobo\forms\psa_forage\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{430BC1E1-5CF2-45E1-BF88-61C0A797272D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="5310"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="survey" sheetId="1" r:id="rId1"/>
@@ -21,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="84">
   <si>
     <t>type</t>
   </si>
@@ -155,9 +156,6 @@
     <t>Ripening (grain forming from milk to kernel)</t>
   </si>
   <si>
-    <t>welcome</t>
-  </si>
-  <si>
     <t>my95g71</t>
   </si>
   <si>
@@ -173,12 +171,6 @@
     <t>No</t>
   </si>
   <si>
-    <t>psa_forage</t>
-  </si>
-  <si>
-    <t>Do you have any issues to report? (including height of pole and movement of box)</t>
-  </si>
-  <si>
     <t>Take a birds eye photo of the cover crop. Stand in the cover crop - Rep 1. hold the tablet chest high, point down. (be sure to remove your feet from the image)</t>
   </si>
   <si>
@@ -209,44 +201,99 @@
     <t>CE1</t>
   </si>
   <si>
-    <t>notes</t>
-  </si>
-  <si>
-    <t>Take birds eye photos of the cover crops standing inside the cover crops. Hold the tablet chest high, point down, be sure to remove your feet from the image</t>
-  </si>
-  <si>
-    <t>v4</t>
-  </si>
-  <si>
     <t>date</t>
   </si>
   <si>
     <t>What is the date you are taking the scans?</t>
   </si>
   <si>
-    <t>monoculture_note</t>
-  </si>
-  <si>
-    <t>This forage box scan should only be done on monocultures. If you have a mixed cover crop, you do not need to proceed</t>
-  </si>
-  <si>
     <t>Forage_onfarm.jpg</t>
   </si>
   <si>
     <t>What is the growth stage of your grains (if applicable)?</t>
   </si>
   <si>
-    <t>Forage Box Form - for uploading On-farm map files</t>
-  </si>
-  <si>
     <t>Is this your early spring/ fall cover crop mapping, or are you scannning at cover crop biomass termination time?</t>
+  </si>
+  <si>
+    <t>psa_forage_onfarm</t>
+  </si>
+  <si>
+    <t>bare_rep1</t>
+  </si>
+  <si>
+    <t>bare_rep2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a birds eye photo of the bare plot - Rep1. Get a representative image of relative weedy ground cover. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Take a birds eye photo of the bare plot - Rep 2. Get a representative image of relative weedy ground cover. </t>
+  </si>
+  <si>
+    <t>v5</t>
+  </si>
+  <si>
+    <t>select_one 456</t>
+  </si>
+  <si>
+    <t>mono</t>
+  </si>
+  <si>
+    <t>mix</t>
+  </si>
+  <si>
+    <t>Monoculture</t>
+  </si>
+  <si>
+    <t>Mix</t>
+  </si>
+  <si>
+    <t>Does this farm have a mixture or monoculture cover crop?</t>
+  </si>
+  <si>
+    <t>STOP: This forage box scan should only be done on monocultures. If you have a mixed cover crop, you do not need to proceed</t>
+  </si>
+  <si>
+    <t>mixnote</t>
+  </si>
+  <si>
+    <t>monoculture</t>
+  </si>
+  <si>
+    <t>${monoculture}="mix"</t>
+  </si>
+  <si>
+    <t>${monoculture}='mono'</t>
+  </si>
+  <si>
+    <t>Do you have any issues to report? (including height of pole and movement of box, and weediness of the bare plot or plot stand)</t>
+  </si>
+  <si>
+    <t>exampleimage</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Forage Box Form - for uploading On-farm map files. </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Image On-farm: Example of walking patterns (blue lines for Rep 1 and red lines for Rep 2) for forage box scans. Loops should be a continuous circle about 6 to 10 feet wide around the area you intend to harvest for cover crop biomass. </t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -257,6 +304,20 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -282,20 +343,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -392,6 +449,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -427,6 +501,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -602,8 +693,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:H33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
@@ -614,11 +705,10 @@
     <col min="1" max="1" width="21.1796875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="40.453125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="53.81640625" customWidth="1"/>
-    <col min="4" max="4" width="6.6328125" customWidth="1"/>
-    <col min="5" max="5" width="13.26953125" customWidth="1"/>
-    <col min="6" max="6" width="8.7265625" style="3"/>
-    <col min="7" max="7" width="16" style="1" customWidth="1"/>
-    <col min="8" max="8" width="8.7265625" style="1"/>
+    <col min="4" max="4" width="6.54296875" customWidth="1"/>
+    <col min="5" max="5" width="18.453125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7265625" style="1"/>
+    <col min="7" max="7" width="16" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.35">
@@ -637,13 +727,13 @@
       <c r="E1" t="s">
         <v>18</v>
       </c>
-      <c r="F1" s="3" t="s">
+      <c r="F1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
         <v>19</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" t="s">
         <v>26</v>
       </c>
     </row>
@@ -675,43 +765,41 @@
       <c r="A5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A6" s="1" t="s">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" t="s">
         <v>21</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="F6" s="4" t="s">
+      <c r="E6" t="s">
+        <v>64</v>
+      </c>
+      <c r="F6" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A7" s="1" t="s">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="1"/>
       <c r="E7" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="F7" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="F7" s="1" t="s">
         <v>7</v>
       </c>
     </row>
@@ -720,227 +808,262 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>44</v>
+        <v>82</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
-      </c>
-      <c r="F8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F8" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="H8" s="1" t="s">
-        <v>69</v>
+      <c r="H8" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>70</v>
       </c>
       <c r="B9" t="s">
-        <v>67</v>
-      </c>
-      <c r="C9" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F9" s="3" t="b">
+        <v>78</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="F9" s="1" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G10"/>
+        <v>77</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="G10" t="s">
+        <v>79</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>65</v>
+        <v>13</v>
       </c>
       <c r="B11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C11" s="5" t="s">
-        <v>66</v>
-      </c>
-      <c r="F11" s="3" t="b">
+        <v>14</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="1" t="b">
         <v>1</v>
       </c>
-      <c r="G11"/>
-    </row>
-    <row r="12" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="G11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>59</v>
+      </c>
+      <c r="B12" t="s">
+        <v>59</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" s="1" t="b">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
         <v>27</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="F12" s="3" t="b">
+      <c r="C13" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="F13" s="1" t="b">
         <v>0</v>
       </c>
-      <c r="G12"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A13" s="1" t="s">
+      <c r="G13" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
         <v>34</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" t="s">
         <v>33</v>
       </c>
-      <c r="C13" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="3" t="b">
+      <c r="C14" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="F14" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A14" t="s">
-        <v>8</v>
-      </c>
-      <c r="B14" t="s">
-        <v>16</v>
-      </c>
-      <c r="C14" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="F14" s="3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G14"/>
+      <c r="G14" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="15" spans="1:8" ht="43.5" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>8</v>
       </c>
       <c r="B15" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="F15" s="1" t="b">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" ht="29" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>8</v>
+      </c>
+      <c r="B16" t="s">
+        <v>65</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="G16" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>8</v>
+      </c>
+      <c r="B17" t="s">
         <v>17</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C17" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="F17" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="29" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" t="s">
+        <v>66</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="G18" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>9</v>
+      </c>
+      <c r="B19" t="s">
         <v>53</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="C19" t="s">
+        <v>51</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="G15"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.35">
-      <c r="A16" t="s">
+      <c r="G19" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
         <v>9</v>
       </c>
-      <c r="B16" t="s">
-        <v>56</v>
-      </c>
-      <c r="C16" t="s">
+      <c r="B20" t="s">
         <v>54</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="F20" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>57</v>
-      </c>
-      <c r="C17" t="s">
-        <v>55</v>
-      </c>
-      <c r="F17" s="3" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="A18" t="s">
+      <c r="G20" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
         <v>13</v>
       </c>
-      <c r="B18" t="s">
+      <c r="B21" t="s">
         <v>20</v>
       </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="F18" s="3" t="b">
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="F21" s="1" t="b">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" ht="43.5" x14ac:dyDescent="0.35">
-      <c r="A19" t="s">
-        <v>6</v>
-      </c>
-      <c r="B19" t="s">
-        <v>62</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="F19" s="3" t="b">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C20" s="6"/>
-      <c r="G20"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C21" s="6"/>
-      <c r="G21"/>
+      <c r="G21" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C22" s="6"/>
-      <c r="G22"/>
+      <c r="C22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C23" s="6"/>
-      <c r="G23"/>
+      <c r="C23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C24" s="6"/>
-      <c r="G24"/>
+      <c r="C24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C25" s="6"/>
-      <c r="G25"/>
+      <c r="C25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C26" s="6"/>
-      <c r="G26"/>
+      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C27" s="6"/>
-      <c r="G27"/>
+      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C28" s="6"/>
-      <c r="G28"/>
+      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C29" s="6"/>
-      <c r="G29"/>
+      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C30" s="6"/>
-      <c r="G30"/>
+      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="C31" s="6"/>
-      <c r="G31"/>
+      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.35">
-      <c r="G32"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.35">
+      <c r="C33" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -949,11 +1072,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -974,46 +1097,46 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A2">
-        <v>1234567</v>
+        <v>456</v>
       </c>
       <c r="B2" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="C2" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A3">
+        <v>456</v>
+      </c>
+      <c r="B3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C3" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A4">
         <v>1234567</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1234567</v>
+      </c>
+      <c r="B5" t="s">
         <v>29</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C5" t="s">
         <v>31</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A4" t="s">
-        <v>35</v>
-      </c>
-      <c r="B4" t="s">
-        <v>36</v>
-      </c>
-      <c r="C4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A5" t="s">
-        <v>35</v>
-      </c>
-      <c r="B5" t="s">
-        <v>38</v>
-      </c>
-      <c r="C5" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.35">
@@ -1021,10 +1144,10 @@
         <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.35">
@@ -1032,54 +1155,76 @@
         <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="C7" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="B8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="C8" t="s">
-        <v>47</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
+        <v>35</v>
+      </c>
+      <c r="B9" t="s">
+        <v>42</v>
+      </c>
+      <c r="C9" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>44</v>
+      </c>
+      <c r="B10" t="s">
         <v>45</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C10" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>44</v>
+      </c>
+      <c r="B11" t="s">
+        <v>47</v>
+      </c>
+      <c r="C11" t="s">
         <v>48</v>
       </c>
-      <c r="C9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A10">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A12">
         <v>1345678</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B12" t="s">
+        <v>55</v>
+      </c>
+      <c r="C12" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>1345678</v>
+      </c>
+      <c r="B13" t="s">
+        <v>56</v>
+      </c>
+      <c r="C13" t="s">
         <v>58</v>
-      </c>
-      <c r="C10" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A11">
-        <v>1345678</v>
-      </c>
-      <c r="B11" t="s">
-        <v>59</v>
-      </c>
-      <c r="C11" t="s">
-        <v>61</v>
       </c>
     </row>
   </sheetData>
@@ -1088,7 +1233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
